--- a/biology/Zoologie/Huia_dimorphe/Huia_dimorphe.xlsx
+++ b/biology/Zoologie/Huia_dimorphe/Huia_dimorphe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heteralocha acutirostris
 Le Huia dimorphe (Heteralocha acutirostris†) était une espèce d'oiseau de Nouvelle-Zélande. Elle s'est éteinte au début du XXe siècle.
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est la seule espèce d'oiseaux qui présentait un dimorphisme sexuel au niveau du bec, celui de la femelle était long et fortement recourbé, alors que celui du mâle était plus court et légèrement incurvé[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est la seule espèce d'oiseaux qui présentait un dimorphisme sexuel au niveau du bec, celui de la femelle était long et fortement recourbé, alors que celui du mâle était plus court et légèrement incurvé,.
 Le plumage est noir avec l'extrémité des rectrices blanche. Deux caroncules orange entourent le bec.
 </t>
         </is>
@@ -545,9 +559,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce était endémique du sud de l'île du Nord en Nouvelle-Zélande. On suppose qu'elle vivait dans la forêt primaire[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce était endémique du sud de l'île du Nord en Nouvelle-Zélande. On suppose qu'elle vivait dans la forêt primaire.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Liens internes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Liste des espèces d'oiseaux disparues</t>
         </is>
